--- a/final_methodology_aligned_results.xlsx
+++ b/final_methodology_aligned_results.xlsx
@@ -470,12 +470,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -912,12 +912,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -938,12 +938,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2082,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2732,12 +2732,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -2992,12 +2992,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3070,12 +3070,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -3356,12 +3356,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3408,12 +3408,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3512,12 +3512,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4396,12 +4396,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4890,12 +4890,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5020,12 +5020,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -5046,12 +5046,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5618,12 +5618,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5722,12 +5722,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -5904,12 +5904,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -5982,12 +5982,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6008,12 +6008,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6190,12 +6190,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6216,12 +6216,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6398,12 +6398,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6424,12 +6424,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6450,12 +6450,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6632,12 +6632,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6684,12 +6684,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6762,12 +6762,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7022,12 +7022,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7048,12 +7048,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7126,12 +7126,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7256,12 +7256,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7542,12 +7542,12 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7672,12 +7672,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -7750,12 +7750,12 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8166,12 +8166,12 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8270,12 +8270,12 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8426,12 +8426,12 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8504,12 +8504,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9258,12 +9258,12 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9934,12 +9934,12 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10168,12 +10168,12 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10220,12 +10220,12 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10298,12 +10298,12 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10350,12 +10350,12 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10875,7 +10875,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10922,12 +10922,12 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11026,12 +11026,12 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11052,12 +11052,12 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11390,12 +11390,12 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11494,12 +11494,12 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11655,7 +11655,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -11676,12 +11676,12 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11806,12 +11806,12 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11910,12 +11910,12 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11936,12 +11936,12 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -11988,12 +11988,12 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12196,12 +12196,12 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12305,7 +12305,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12378,12 +12378,12 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12430,12 +12430,12 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12747,7 +12747,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12768,12 +12768,12 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12794,12 +12794,12 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12846,12 +12846,12 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -13132,12 +13132,12 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13470,12 +13470,12 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13678,12 +13678,12 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13709,7 +13709,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -13730,12 +13730,12 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13860,12 +13860,12 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13938,12 +13938,12 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -13969,7 +13969,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -13990,12 +13990,12 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14068,12 +14068,12 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14120,12 +14120,12 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14203,7 +14203,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14224,12 +14224,12 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14255,7 +14255,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14411,7 +14411,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14510,12 +14510,12 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14536,12 +14536,12 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -14645,7 +14645,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -14666,12 +14666,12 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14692,12 +14692,12 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14770,12 +14770,12 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14848,12 +14848,12 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14874,12 +14874,12 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14926,12 +14926,12 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15004,12 +15004,12 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15030,12 +15030,12 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -15139,7 +15139,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15160,12 +15160,12 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15212,12 +15212,12 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15238,12 +15238,12 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15290,12 +15290,12 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15321,7 +15321,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15347,7 +15347,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15425,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15659,7 +15659,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -15784,12 +15784,12 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15810,12 +15810,12 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16023,7 +16023,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16257,7 +16257,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16283,7 +16283,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16439,7 +16439,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16465,7 +16465,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16699,7 +16699,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -16824,12 +16824,12 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -16850,12 +16850,12 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16876,12 +16876,12 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -16928,12 +16928,12 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -16959,7 +16959,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17037,7 +17037,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17063,7 +17063,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17136,12 +17136,12 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17162,12 +17162,12 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17193,7 +17193,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17214,12 +17214,12 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17240,12 +17240,12 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17266,12 +17266,12 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -17323,7 +17323,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17344,12 +17344,12 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17370,12 +17370,12 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17422,12 +17422,12 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17448,12 +17448,12 @@
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17500,12 +17500,12 @@
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17526,12 +17526,12 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17604,12 +17604,12 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -17656,12 +17656,12 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17682,12 +17682,12 @@
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17713,7 +17713,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -17843,7 +17843,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17942,12 +17942,12 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18077,7 +18077,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18176,12 +18176,12 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18207,7 +18207,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18233,7 +18233,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18259,7 +18259,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18306,12 +18306,12 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18358,12 +18358,12 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18441,7 +18441,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18462,12 +18462,12 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18545,7 +18545,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18566,12 +18566,12 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18592,12 +18592,12 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18618,12 +18618,12 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -18727,7 +18727,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18753,7 +18753,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18779,7 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18800,12 +18800,12 @@
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18909,7 +18909,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -18987,7 +18987,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19008,12 +19008,12 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19039,7 +19039,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19060,12 +19060,12 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19086,12 +19086,12 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19169,7 +19169,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19247,7 +19247,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -19294,12 +19294,12 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -19377,7 +19377,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -19398,12 +19398,12 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19476,12 +19476,12 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19507,7 +19507,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19533,7 +19533,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19554,12 +19554,12 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19580,12 +19580,12 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19663,7 +19663,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19684,12 +19684,12 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19710,12 +19710,12 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19741,7 +19741,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -19767,7 +19767,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19788,12 +19788,12 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19814,12 +19814,12 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19840,12 +19840,12 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -19871,7 +19871,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19923,7 +19923,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -19975,7 +19975,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20079,7 +20079,7 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20157,7 +20157,7 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -20183,7 +20183,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20287,7 +20287,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20339,7 +20339,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20417,7 +20417,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20490,12 +20490,12 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20542,12 +20542,12 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20573,7 +20573,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -20651,7 +20651,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20677,7 +20677,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20703,7 +20703,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -20729,7 +20729,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20750,12 +20750,12 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20833,7 +20833,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20859,7 +20859,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20911,7 +20911,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20937,7 +20937,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -20963,7 +20963,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -20984,12 +20984,12 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21015,7 +21015,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21062,12 +21062,12 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21119,7 +21119,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21171,7 +21171,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21197,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21218,12 +21218,12 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21244,12 +21244,12 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21275,7 +21275,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21322,12 +21322,12 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21353,7 +21353,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21379,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21405,7 +21405,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21431,7 +21431,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21452,12 +21452,12 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21478,12 +21478,12 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21504,12 +21504,12 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21530,12 +21530,12 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21561,7 +21561,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21582,12 +21582,12 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21613,7 +21613,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21634,12 +21634,12 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21665,7 +21665,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21712,12 +21712,12 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21790,12 +21790,12 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21847,7 +21847,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -21868,12 +21868,12 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21899,7 +21899,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21946,12 +21946,12 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -21977,7 +21977,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -21998,12 +21998,12 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22029,7 +22029,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22081,7 +22081,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22102,12 +22102,12 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22128,12 +22128,12 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22159,7 +22159,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22185,7 +22185,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22206,12 +22206,12 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22232,12 +22232,12 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22284,12 +22284,12 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22310,12 +22310,12 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22341,7 +22341,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22367,7 +22367,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22440,12 +22440,12 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22471,7 +22471,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22492,12 +22492,12 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22518,12 +22518,12 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22549,7 +22549,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22627,7 +22627,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22648,12 +22648,12 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22679,7 +22679,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -22705,7 +22705,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22726,12 +22726,12 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22752,12 +22752,12 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22783,7 +22783,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22809,7 +22809,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22856,12 +22856,12 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -22887,7 +22887,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22939,7 +22939,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -22991,7 +22991,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23043,7 +23043,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23069,7 +23069,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23095,7 +23095,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23147,7 +23147,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23168,12 +23168,12 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -23194,12 +23194,12 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -23251,7 +23251,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23303,7 +23303,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23329,7 +23329,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23355,7 +23355,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23381,7 +23381,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23407,7 +23407,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23433,7 +23433,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23459,7 +23459,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23485,7 +23485,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23511,7 +23511,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23589,7 +23589,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23667,7 +23667,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23693,7 +23693,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23719,7 +23719,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23745,7 +23745,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23823,7 +23823,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -23844,12 +23844,12 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -23896,12 +23896,12 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -23922,12 +23922,12 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -23953,7 +23953,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -23974,12 +23974,12 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24005,7 +24005,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -24026,12 +24026,12 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24057,7 +24057,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24083,7 +24083,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24135,7 +24135,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24187,7 +24187,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24239,7 +24239,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24286,12 +24286,12 @@
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24317,7 +24317,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24343,7 +24343,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24390,12 +24390,12 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24416,12 +24416,12 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24447,7 +24447,7 @@
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24468,12 +24468,12 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24499,7 +24499,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24551,7 +24551,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24577,7 +24577,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
@@ -24598,12 +24598,12 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24624,12 +24624,12 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24650,12 +24650,12 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24681,7 +24681,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>Watch: Monitor evacuation routes</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24707,7 +24707,7 @@
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>Priority: Structural Intervention</t>
+          <t>Priority Zone: High logic-based DPI. Immediate intervention.</t>
         </is>
       </c>
     </row>
@@ -24728,12 +24728,12 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Watch Zone: Monitor non-linear risk factors.</t>
         </is>
       </c>
     </row>
@@ -24759,7 +24759,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>Low Priority: Maintenance only</t>
+          <t>Low Priority: Maintenance only.</t>
         </is>
       </c>
     </row>
